--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject21.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject21.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -158,7 +158,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1" s="0">
         <v>0</v>
@@ -188,7 +188,7 @@
         <v>0</v>
       </c>
       <c r="U1" s="0">
-        <v>0</v>
+        <v>0.74304159966320082</v>
       </c>
       <c r="V1" s="0">
         <v>0</v>
@@ -203,7 +203,7 @@
         <v>0</v>
       </c>
       <c r="Z1" s="0">
-        <v>0</v>
+        <v>0.63898374028373084</v>
       </c>
       <c r="AA1" s="0">
         <v>0</v>
@@ -230,7 +230,7 @@
         <v>0</v>
       </c>
       <c r="AI1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ1" s="0">
         <v>0</v>
@@ -242,7 +242,7 @@
         <v>0</v>
       </c>
       <c r="AM1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN1" s="0">
         <v>0</v>
@@ -284,13 +284,13 @@
         <v>0</v>
       </c>
       <c r="BA1" s="0">
-        <v>0</v>
+        <v>0.96766385133053134</v>
       </c>
       <c r="BB1" s="0">
         <v>0</v>
       </c>
       <c r="BC1" s="0">
-        <v>0</v>
+        <v>0.72355585294693037</v>
       </c>
       <c r="BD1" s="0">
         <v>0</v>
@@ -317,7 +317,7 @@
         <v>0</v>
       </c>
       <c r="BL1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM1" s="0">
         <v>0</v>
@@ -329,7 +329,7 @@
         <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -358,10 +358,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="0">
-        <v>0</v>
+        <v>0.68193760169130568</v>
       </c>
       <c r="K2" s="0">
         <v>0</v>
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="AT2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="0">
         <v>0</v>
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="AZ2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="0">
         <v>0</v>
@@ -499,19 +499,19 @@
         <v>0</v>
       </c>
       <c r="BD2" s="0">
-        <v>0</v>
+        <v>0.83452547541152355</v>
       </c>
       <c r="BE2" s="0">
         <v>0</v>
       </c>
       <c r="BF2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG2" s="0">
         <v>0</v>
       </c>
       <c r="BH2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="0">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="0">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="0">
-        <v>0</v>
+        <v>0.56489332435626016</v>
       </c>
       <c r="P3" s="0">
         <v>0</v>
@@ -600,16 +600,16 @@
         <v>0</v>
       </c>
       <c r="U3" s="0">
-        <v>0</v>
+        <v>0.67023133125274881</v>
       </c>
       <c r="V3" s="0">
         <v>0</v>
       </c>
       <c r="W3" s="0">
-        <v>0</v>
+        <v>0.53352723158155269</v>
       </c>
       <c r="X3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="0">
         <v>0</v>
@@ -684,13 +684,13 @@
         <v>0</v>
       </c>
       <c r="AW3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX3" s="0">
         <v>0</v>
       </c>
       <c r="AY3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="0">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -761,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.73108148630698899</v>
       </c>
       <c r="G4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="0">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="0">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="0">
-        <v>0</v>
+        <v>0.72578295128163484</v>
       </c>
       <c r="T4" s="0">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="BI4" s="0">
-        <v>0</v>
+        <v>0.62647807752744256</v>
       </c>
       <c r="BJ4" s="0">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="BL4" s="0">
-        <v>0</v>
+        <v>0.98105085874765918</v>
       </c>
       <c r="BM4" s="0">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="0">
-        <v>0</v>
+        <v>0.51469173966244774</v>
       </c>
       <c r="W5" s="0">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="0">
-        <v>0</v>
+        <v>0.64273538480229186</v>
       </c>
       <c r="AD5" s="0">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="AG5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="0">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="BD5" s="0">
-        <v>0</v>
+        <v>0.51825152810013519</v>
       </c>
       <c r="BE5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="0">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="BJ5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK5" s="0">
         <v>0</v>
@@ -1167,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.72627035773172588</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="0">
-        <v>0</v>
+        <v>0.64186284731711751</v>
       </c>
       <c r="U6" s="0">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="0">
-        <v>0</v>
+        <v>0.73876549167125605</v>
       </c>
       <c r="Z6" s="0">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="0">
         <v>0</v>
@@ -1278,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="AO6" s="0">
-        <v>0</v>
+        <v>0.85799519098535293</v>
       </c>
       <c r="AP6" s="0">
-        <v>0</v>
+        <v>0.81804636231145356</v>
       </c>
       <c r="AQ6" s="0">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
       </c>
       <c r="J7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="0">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="0">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="AI7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="0">
         <v>0</v>
       </c>
       <c r="AK7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="0">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="AP7" s="0">
-        <v>0</v>
+        <v>0.68072824971327672</v>
       </c>
       <c r="AQ7" s="0">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="AU7" s="0">
-        <v>0</v>
+        <v>0.61522426317530199</v>
       </c>
       <c r="AV7" s="0">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="AX7" s="0">
-        <v>0</v>
+        <v>0.74727371498108441</v>
       </c>
       <c r="AY7" s="0">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="BL7" s="0">
-        <v>0</v>
+        <v>0.52237259281802051</v>
       </c>
       <c r="BM7" s="0">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="N8" s="0">
-        <v>0</v>
+        <v>0.75613251035784712</v>
       </c>
       <c r="O8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="0">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="0">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="AV8" s="0">
-        <v>0</v>
+        <v>0.560612149768003</v>
       </c>
       <c r="AW8" s="0">
         <v>0</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="BB8" s="0">
-        <v>1</v>
+        <v>0.7468477971265991</v>
       </c>
       <c r="BC8" s="0">
         <v>0</v>
@@ -1750,10 +1750,10 @@
         <v>0</v>
       </c>
       <c r="BI8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ8" s="0">
-        <v>0</v>
+        <v>0.96321672871520292</v>
       </c>
       <c r="BK8" s="0">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="0">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="0">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="0">
-        <v>0</v>
+        <v>0.99760084168153296</v>
       </c>
       <c r="Y9" s="0">
         <v>0</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="0">
         <v>0</v>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="AU9" s="0">
-        <v>0</v>
+        <v>0.59803485651367061</v>
       </c>
       <c r="AV9" s="0">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="BO9" s="0">
-        <v>0</v>
+        <v>0.64561346996485369</v>
       </c>
       <c r="BP9" s="0">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="0">
-        <v>0</v>
+        <v>0.55834596814538884</v>
       </c>
       <c r="C10" s="0">
         <v>0</v>
       </c>
       <c r="D10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="0">
         <v>0</v>
@@ -2000,13 +2000,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="0">
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2039,13 +2039,13 @@
         <v>0</v>
       </c>
       <c r="T10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="0">
         <v>0</v>
       </c>
       <c r="V10" s="0">
-        <v>0</v>
+        <v>0.8354848851982587</v>
       </c>
       <c r="W10" s="0">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="0">
-        <v>0</v>
+        <v>0.91484905115717274</v>
       </c>
       <c r="AG10" s="0">
         <v>0</v>
@@ -2105,13 +2105,13 @@
         <v>0</v>
       </c>
       <c r="AP10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ10" s="0">
         <v>0</v>
       </c>
       <c r="AR10" s="0">
-        <v>0</v>
+        <v>0.72552780852595233</v>
       </c>
       <c r="AS10" s="0">
         <v>0</v>
@@ -2188,13 +2188,13 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="0">
         <v>0</v>
       </c>
       <c r="C11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="0">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="0">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="AS11" s="0">
-        <v>0</v>
+        <v>0.80658666641608123</v>
       </c>
       <c r="AT11" s="0">
-        <v>0</v>
+        <v>0.99737460580584725</v>
       </c>
       <c r="AU11" s="0">
         <v>0</v>
@@ -2341,13 +2341,13 @@
         <v>0</v>
       </c>
       <c r="AZ11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="0">
         <v>0</v>
       </c>
       <c r="BB11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC11" s="0">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="BM11" s="0">
-        <v>0</v>
+        <v>0.86847032963968118</v>
       </c>
       <c r="BN11" s="0">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="AM12" s="0">
-        <v>0</v>
+        <v>0.60020540967537483</v>
       </c>
       <c r="AN12" s="0">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="0">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="BC12" s="0">
-        <v>1</v>
+        <v>0.62901552557813512</v>
       </c>
       <c r="BD12" s="0">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="BG12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="0">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.51672981312564548</v>
       </c>
       <c r="O13" s="0">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="AH13" s="0">
-        <v>0</v>
+        <v>0.72741623226472751</v>
       </c>
       <c r="AI13" s="0">
         <v>0</v>
@@ -2711,13 +2711,13 @@
         <v>0</v>
       </c>
       <c r="AL13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="0">
         <v>0</v>
       </c>
       <c r="AN13" s="0">
-        <v>0</v>
+        <v>0.81982708618129885</v>
       </c>
       <c r="AO13" s="0">
         <v>0</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="AR13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS13" s="0">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="AX13" s="0">
-        <v>0</v>
+        <v>0.98677585987791039</v>
       </c>
       <c r="AY13" s="0">
         <v>0</v>
@@ -2798,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="BO13" s="0">
-        <v>0</v>
+        <v>0.87660885579158043</v>
       </c>
       <c r="BP13" s="0">
-        <v>0</v>
+        <v>0.55417841881821439</v>
       </c>
     </row>
     <row r="14">
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0</v>
+        <v>0.8105151472441714</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.70716798170895934</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="0">
-        <v>0</v>
+        <v>0.76639503534867748</v>
       </c>
       <c r="Y14" s="0">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="0">
-        <v>0</v>
+        <v>0.59979194103822686</v>
       </c>
       <c r="AQ14" s="0">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="BO14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP14" s="0">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="0">
-        <v>0</v>
+        <v>0.90835820592323646</v>
       </c>
       <c r="D15" s="0">
         <v>0</v>
@@ -3033,10 +3033,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="0">
         <v>0</v>
@@ -3057,16 +3057,16 @@
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0</v>
+        <v>0.76956887644675798</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
       </c>
       <c r="S15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="0">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="0">
-        <v>0</v>
+        <v>0.94555717881762846</v>
       </c>
       <c r="X15" s="0">
         <v>0</v>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="0">
-        <v>0</v>
+        <v>0.86097139000049228</v>
       </c>
       <c r="AB15" s="0">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="BB15" s="0">
-        <v>0</v>
+        <v>0.70701707952366311</v>
       </c>
       <c r="BC15" s="0">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="BN15" s="0">
-        <v>0</v>
+        <v>0.87375822578095796</v>
       </c>
       <c r="BO15" s="0">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>0</v>
+        <v>0.68482432406643923</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3275,10 +3275,10 @@
         <v>0</v>
       </c>
       <c r="T16" s="0">
-        <v>0</v>
+        <v>0.52465915857915246</v>
       </c>
       <c r="U16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="0">
         <v>0</v>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="0">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="AE16" s="0">
-        <v>0</v>
+        <v>0.73643988147019579</v>
       </c>
       <c r="AF16" s="0">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="AX16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="0">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="BE16" s="0">
-        <v>0</v>
+        <v>0.69260182494445677</v>
       </c>
       <c r="BF16" s="0">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="BP16" s="0">
-        <v>0</v>
+        <v>0.59657964123457141</v>
       </c>
     </row>
     <row r="17">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3547,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="AP17" s="0">
-        <v>0</v>
+        <v>0.54157572601100135</v>
       </c>
       <c r="AQ17" s="0">
-        <v>0</v>
+        <v>0.51572898279577228</v>
       </c>
       <c r="AR17" s="0">
         <v>0</v>
@@ -3610,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="BK17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL17" s="0">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>0</v>
+        <v>0.51563417907958176</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="0">
         <v>0</v>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="0">
-        <v>0</v>
+        <v>0.60732899351761827</v>
       </c>
       <c r="AT18" s="0">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="AY18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="0">
         <v>0</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="BE18" s="0">
-        <v>0</v>
+        <v>0.94757449158233387</v>
       </c>
       <c r="BF18" s="0">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="0">
-        <v>0</v>
+        <v>0.5923171443814752</v>
       </c>
       <c r="E19" s="0">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="0">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="0">
         <v>0</v>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="AH19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI19" s="0">
         <v>0</v>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="AN19" s="0">
-        <v>0</v>
+        <v>0.6253334612366519</v>
       </c>
       <c r="AO19" s="0">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>0</v>
       </c>
       <c r="AV19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW19" s="0">
-        <v>0</v>
+        <v>0.74569876745816788</v>
       </c>
       <c r="AX19" s="0">
         <v>0</v>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="BF19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG19" s="0">
         <v>0</v>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="0">
-        <v>0</v>
+        <v>0.61826951040273359</v>
       </c>
       <c r="G20" s="0">
         <v>0</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="0">
         <v>0</v>
@@ -4087,13 +4087,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="0">
-        <v>0</v>
+        <v>0.55739726621804642</v>
       </c>
       <c r="Q20" s="0">
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0</v>
+        <v>0.72675073387988287</v>
       </c>
       <c r="S20" s="0">
         <v>0</v>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="AP20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="0">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="BC20" s="0">
-        <v>0</v>
+        <v>0.79652819779030892</v>
       </c>
       <c r="BD20" s="0">
         <v>0</v>
@@ -4248,13 +4248,13 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0</v>
+        <v>0.51098663867543936</v>
       </c>
       <c r="B21" s="0">
         <v>0</v>
       </c>
       <c r="C21" s="0">
-        <v>0</v>
+        <v>0.50186508550231967</v>
       </c>
       <c r="D21" s="0">
         <v>0</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="0">
         <v>0</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="0">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>0.60698997947710787</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="AH21" s="0">
-        <v>0</v>
+        <v>0.64721459943499005</v>
       </c>
       <c r="AI21" s="0">
         <v>0</v>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="AN21" s="0">
-        <v>0</v>
+        <v>0.94979387898127543</v>
       </c>
       <c r="AO21" s="0">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="BA21" s="0">
-        <v>0</v>
+        <v>0.79435254923501764</v>
       </c>
       <c r="BB21" s="0">
         <v>0</v>
@@ -4419,13 +4419,13 @@
         <v>0</v>
       </c>
       <c r="BF21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="0">
         <v>0</v>
       </c>
       <c r="BH21" s="0">
-        <v>0</v>
+        <v>0.88857298012154673</v>
       </c>
       <c r="BI21" s="0">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="BL21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM21" s="0">
         <v>0</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="0">
-        <v>0</v>
+        <v>0.86518857106124059</v>
       </c>
       <c r="F22" s="0">
         <v>0</v>
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="0">
-        <v>0</v>
+        <v>0.88984175106980712</v>
       </c>
       <c r="K22" s="0">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>0</v>
+        <v>0.88841280903183639</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4556,10 +4556,10 @@
         <v>0</v>
       </c>
       <c r="AI22" s="0">
-        <v>0</v>
+        <v>0.67584431072348128</v>
       </c>
       <c r="AJ22" s="0">
-        <v>0</v>
+        <v>0.69372710806926996</v>
       </c>
       <c r="AK22" s="0">
         <v>0</v>
@@ -4580,19 +4580,19 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR22" s="0">
         <v>0</v>
       </c>
       <c r="AS22" s="0">
-        <v>0</v>
+        <v>0.58033999006957537</v>
       </c>
       <c r="AT22" s="0">
-        <v>0</v>
+        <v>0.68940972742874984</v>
       </c>
       <c r="AU22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV22" s="0">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="0">
-        <v>0</v>
+        <v>0.89087508360014134</v>
       </c>
       <c r="D23" s="0">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="0">
-        <v>0</v>
+        <v>0.69770585872447866</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
@@ -4729,10 +4729,10 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.57437379865678961</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4762,13 +4762,13 @@
         <v>0</v>
       </c>
       <c r="AI23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="0">
         <v>0</v>
       </c>
       <c r="AK23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="0">
         <v>0</v>
@@ -4872,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="0">
         <v>0</v>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="0">
-        <v>0</v>
+        <v>0.82693645893149115</v>
       </c>
       <c r="J24" s="0">
         <v>0</v>
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="0">
-        <v>0</v>
+        <v>0.80886375987649783</v>
       </c>
       <c r="O24" s="0">
         <v>0</v>
@@ -4929,10 +4929,10 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -4965,10 +4965,10 @@
         <v>0</v>
       </c>
       <c r="AH24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI24" s="0">
-        <v>0</v>
+        <v>0.76822456007222062</v>
       </c>
       <c r="AJ24" s="0">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="AY24" s="0">
-        <v>0</v>
+        <v>0.67991727490930765</v>
       </c>
       <c r="AZ24" s="0">
         <v>0</v>
@@ -5031,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="BD24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE24" s="0">
         <v>0</v>
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="0">
-        <v>0</v>
+        <v>0.54438996664110983</v>
       </c>
       <c r="G25" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.87319460056856602</v>
       </c>
       <c r="X25" s="0">
         <v>0</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="AO25" s="0">
-        <v>0</v>
+        <v>0.72876655166827142</v>
       </c>
       <c r="AP25" s="0">
         <v>0</v>
@@ -5210,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="AU25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV25" s="0">
         <v>0</v>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="BK25" s="0">
-        <v>0</v>
+        <v>0.99735872979316131</v>
       </c>
       <c r="BL25" s="0">
         <v>0</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0</v>
+        <v>0.98399148769620681</v>
       </c>
       <c r="B26" s="0">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="0">
         <v>0</v>
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="AZ26" s="0">
-        <v>0</v>
+        <v>0.69963699415959291</v>
       </c>
       <c r="BA26" s="0">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="BE26" s="0">
-        <v>0</v>
+        <v>0.91960313326891363</v>
       </c>
       <c r="BF26" s="0">
         <v>0</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="BI26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ26" s="0">
         <v>0</v>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="BO26" s="0">
-        <v>0</v>
+        <v>0.55644436933123076</v>
       </c>
       <c r="BP26" s="0">
         <v>0</v>
@@ -5508,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="0">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="0">
-        <v>0</v>
+        <v>0.81687071096392927</v>
       </c>
       <c r="P27" s="0">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="0">
-        <v>0</v>
+        <v>0.73561331287301934</v>
       </c>
       <c r="AQ27" s="0">
         <v>0</v>
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="AX27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY27" s="0">
         <v>0</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="BD27" s="0">
-        <v>0</v>
+        <v>0.69665028738726975</v>
       </c>
       <c r="BE27" s="0">
         <v>0</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="BH27" s="0">
-        <v>0</v>
+        <v>0.57915673282157032</v>
       </c>
       <c r="BI27" s="0">
         <v>0</v>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="BP27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="0">
         <v>0</v>
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="AH28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI28" s="0">
         <v>0</v>
@@ -5798,13 +5798,13 @@
         <v>0</v>
       </c>
       <c r="AK28" s="0">
-        <v>0</v>
+        <v>0.69867806271202304</v>
       </c>
       <c r="AL28" s="0">
         <v>0</v>
       </c>
       <c r="AM28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN28" s="0">
         <v>0</v>
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="AU28" s="0">
-        <v>0</v>
+        <v>0.72589039263587396</v>
       </c>
       <c r="AV28" s="0">
         <v>0</v>
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="0">
-        <v>0</v>
+        <v>0.96245361077412106</v>
       </c>
       <c r="F29" s="0">
         <v>0</v>
@@ -5995,10 +5995,10 @@
         <v>0</v>
       </c>
       <c r="AH29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI29" s="0">
-        <v>1</v>
+        <v>0.65215149237493653</v>
       </c>
       <c r="AJ29" s="0">
         <v>0</v>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="BC29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD29" s="0">
         <v>0</v>
@@ -6082,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="BK29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL29" s="0">
         <v>0</v>
@@ -6192,16 +6192,16 @@
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.8170245060854342</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
       </c>
       <c r="AH30" s="0">
-        <v>0</v>
+        <v>0.98931644534776664</v>
       </c>
       <c r="AI30" s="0">
         <v>0</v>
@@ -6228,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="AQ30" s="0">
-        <v>0</v>
+        <v>0.69295530988754983</v>
       </c>
       <c r="AR30" s="0">
         <v>0</v>
@@ -6323,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="0">
         <v>0</v>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="0">
-        <v>0</v>
+        <v>0.72279229543383838</v>
       </c>
       <c r="Q31" s="0">
         <v>0</v>
@@ -6395,13 +6395,13 @@
         <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="0">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="AL31" s="0">
-        <v>0</v>
+        <v>0.66371889634017667</v>
       </c>
       <c r="AM31" s="0">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="AQ31" s="0">
-        <v>0</v>
+        <v>0.89212270600330879</v>
       </c>
       <c r="AR31" s="0">
         <v>0</v>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="BL31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM31" s="0">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="0">
-        <v>0</v>
+        <v>0.85359406601505983</v>
       </c>
       <c r="K32" s="0">
         <v>0</v>
@@ -6601,10 +6601,10 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.72437860552090183</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="AV32" s="0">
-        <v>0</v>
+        <v>0.74792565776657294</v>
       </c>
       <c r="AW32" s="0">
         <v>0</v>
@@ -6676,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="BC32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD32" s="0">
         <v>0</v>
@@ -6709,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="BN32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO32" s="0">
         <v>0</v>
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="0">
         <v>0</v>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0</v>
+        <v>0.77962962846194594</v>
       </c>
       <c r="AI33" s="0">
         <v>0</v>
@@ -6840,10 +6840,10 @@
         <v>0</v>
       </c>
       <c r="AO33" s="0">
-        <v>0</v>
+        <v>0.75217756630398225</v>
       </c>
       <c r="AP33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ33" s="0">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="BA33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB33" s="0">
         <v>0</v>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="BJ33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK33" s="0">
         <v>0</v>
@@ -6962,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="0">
-        <v>0</v>
+        <v>0.77908416940005121</v>
       </c>
       <c r="N34" s="0">
         <v>0</v>
@@ -6980,13 +6980,13 @@
         <v>0</v>
       </c>
       <c r="S34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" s="0">
         <v>0</v>
       </c>
       <c r="U34" s="0">
-        <v>0</v>
+        <v>0.52200379164262112</v>
       </c>
       <c r="V34" s="0">
         <v>0</v>
@@ -6995,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="0">
         <v>0</v>
@@ -7007,22 +7007,22 @@
         <v>0</v>
       </c>
       <c r="AB34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="0">
-        <v>0</v>
+        <v>0.53472097260465412</v>
       </c>
       <c r="AE34" s="0">
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>0</v>
+        <v>0.67294474086259615</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="BM34" s="0">
-        <v>0</v>
+        <v>0.94243405141227599</v>
       </c>
       <c r="BN34" s="0">
         <v>0</v>
@@ -7132,7 +7132,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" s="0">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="0">
         <v>0</v>
@@ -7195,13 +7195,13 @@
         <v>0</v>
       </c>
       <c r="V35" s="0">
-        <v>0</v>
+        <v>0.95044538945517232</v>
       </c>
       <c r="W35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35" s="0">
-        <v>0</v>
+        <v>0.83360461650939466</v>
       </c>
       <c r="Y35" s="0">
         <v>0</v>
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="0">
-        <v>1</v>
+        <v>0.85493868572681941</v>
       </c>
       <c r="AD35" s="0">
         <v>0</v>
@@ -7276,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="AW35" s="0">
-        <v>0</v>
+        <v>0.55352698923596089</v>
       </c>
       <c r="AX35" s="0">
         <v>0</v>
@@ -7303,10 +7303,10 @@
         <v>0</v>
       </c>
       <c r="BF35" s="0">
-        <v>0</v>
+        <v>0.74522772614769073</v>
       </c>
       <c r="BG35" s="0">
-        <v>0</v>
+        <v>0.88983344235033457</v>
       </c>
       <c r="BH35" s="0">
         <v>0</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="BN35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO35" s="0">
         <v>0</v>
@@ -7401,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="0">
-        <v>0</v>
+        <v>0.73036621409775604</v>
       </c>
       <c r="W36" s="0">
         <v>0</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0</v>
+        <v>0.75596159404818453</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7482,13 +7482,13 @@
         <v>0</v>
       </c>
       <c r="AW36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX36" s="0">
         <v>0</v>
       </c>
       <c r="AY36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ36" s="0">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="BC36" s="0">
-        <v>0</v>
+        <v>0.73084481368477705</v>
       </c>
       <c r="BD36" s="0">
         <v>0</v>
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="BG36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH36" s="0">
         <v>0</v>
@@ -7562,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="0">
         <v>0</v>
@@ -7595,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="R37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="0">
         <v>0</v>
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" s="0">
         <v>0</v>
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="0">
-        <v>0</v>
+        <v>0.53073643169173668</v>
       </c>
       <c r="AC37" s="0">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0</v>
+        <v>0.87515165278945273</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>0</v>
+        <v>0.76214183109237266</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7673,10 +7673,10 @@
         <v>0</v>
       </c>
       <c r="AR37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS37" s="0">
-        <v>0</v>
+        <v>0.7234592259589685</v>
       </c>
       <c r="AT37" s="0">
         <v>0</v>
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="AV37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW37" s="0">
         <v>0</v>
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="BF37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG37" s="0">
         <v>0</v>
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="BL37" s="0">
-        <v>0</v>
+        <v>0.80737470205576622</v>
       </c>
       <c r="BM37" s="0">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="0">
         <v>0</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="AE38" s="0">
-        <v>0</v>
+        <v>0.91717143593434713</v>
       </c>
       <c r="AF38" s="0">
         <v>0</v>
@@ -7897,19 +7897,19 @@
         <v>0</v>
       </c>
       <c r="AX38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY38" s="0">
         <v>0</v>
       </c>
       <c r="AZ38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="0">
-        <v>0</v>
+        <v>0.89700121066433058</v>
       </c>
       <c r="BC38" s="0">
         <v>0</v>
@@ -7918,13 +7918,13 @@
         <v>0</v>
       </c>
       <c r="BE38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF38" s="0">
         <v>0</v>
       </c>
       <c r="BG38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH38" s="0">
         <v>0</v>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="BO38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP38" s="0">
         <v>0</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" s="0">
         <v>0</v>
@@ -7989,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="0">
-        <v>0</v>
+        <v>0.57927985887768418</v>
       </c>
       <c r="M39" s="0">
         <v>0</v>
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="0">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0</v>
+        <v>0.9872906883303284</v>
       </c>
       <c r="AL39" s="0">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="0">
         <v>0</v>
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="AT39" s="0">
-        <v>0</v>
+        <v>0.61645102439601596</v>
       </c>
       <c r="AU39" s="0">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="BE39" s="0">
-        <v>0</v>
+        <v>0.84899312924570336</v>
       </c>
       <c r="BF39" s="0">
         <v>0</v>
@@ -8198,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="0">
-        <v>0</v>
+        <v>0.59088103265508074</v>
       </c>
       <c r="N40" s="0">
         <v>0</v>
@@ -8216,13 +8216,13 @@
         <v>0</v>
       </c>
       <c r="S40" s="0">
-        <v>0</v>
+        <v>0.96926962238045999</v>
       </c>
       <c r="T40" s="0">
         <v>0</v>
       </c>
       <c r="U40" s="0">
-        <v>0</v>
+        <v>0.52536827569293321</v>
       </c>
       <c r="V40" s="0">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="AY40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ40" s="0">
-        <v>0</v>
+        <v>0.50952309353936476</v>
       </c>
       <c r="BA40" s="0">
         <v>0</v>
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="0">
-        <v>0</v>
+        <v>0.91262221733806759</v>
       </c>
       <c r="G41" s="0">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="0">
-        <v>0</v>
+        <v>0.64423282603645982</v>
       </c>
       <c r="Z41" s="0">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="AG41" s="0">
-        <v>0</v>
+        <v>0.54281541070526562</v>
       </c>
       <c r="AH41" s="0">
         <v>0</v>
@@ -8506,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="AU41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV41" s="0">
         <v>0</v>
@@ -8518,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="AY41" s="0">
-        <v>0</v>
+        <v>0.99518519922514215</v>
       </c>
       <c r="AZ41" s="0">
         <v>0</v>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="BF41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG41" s="0">
         <v>0</v>
@@ -8560,10 +8560,10 @@
         <v>0</v>
       </c>
       <c r="BM41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN41" s="0">
-        <v>0</v>
+        <v>0.90856192961449822</v>
       </c>
       <c r="BO41" s="0">
         <v>0</v>
@@ -8589,10 +8589,10 @@
         <v>0</v>
       </c>
       <c r="F42" s="0">
-        <v>0</v>
+        <v>0.97648722024043644</v>
       </c>
       <c r="G42" s="0">
-        <v>0</v>
+        <v>0.67458570489877157</v>
       </c>
       <c r="H42" s="0">
         <v>0</v>
@@ -8601,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="0">
         <v>0</v>
@@ -8613,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="0">
-        <v>0</v>
+        <v>0.67394477927074936</v>
       </c>
       <c r="O42" s="0">
         <v>0</v>
@@ -8622,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="0">
-        <v>0</v>
+        <v>0.65870628264236641</v>
       </c>
       <c r="R42" s="0">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" s="0">
         <v>0</v>
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="0">
-        <v>0</v>
+        <v>0.77738030028057581</v>
       </c>
       <c r="AB42" s="0">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="AG42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH42" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="BC42" s="0">
-        <v>0</v>
+        <v>0.5960986478007132</v>
       </c>
       <c r="BD42" s="0">
         <v>0</v>
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="BH42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI42" s="0">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="BP42" s="0">
-        <v>0</v>
+        <v>0.66515330371380699</v>
       </c>
     </row>
     <row r="43">
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="0">
-        <v>0</v>
+        <v>0.59069387858616085</v>
       </c>
       <c r="R43" s="0">
         <v>0</v>
@@ -8843,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43" s="0">
         <v>0</v>
@@ -8867,10 +8867,10 @@
         <v>0</v>
       </c>
       <c r="AD43" s="0">
-        <v>0</v>
+        <v>0.57138573959051786</v>
       </c>
       <c r="AE43" s="0">
-        <v>0</v>
+        <v>0.97407921396202179</v>
       </c>
       <c r="AF43" s="0">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0</v>
+        <v>0.87567553914793583</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="BD43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE43" s="0">
         <v>0</v>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="BK43" s="0">
-        <v>0</v>
+        <v>0.86286157678700803</v>
       </c>
       <c r="BL43" s="0">
         <v>0</v>
@@ -8975,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="BN43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO43" s="0">
         <v>0</v>
@@ -9013,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="0">
-        <v>0</v>
+        <v>0.81130832467837011</v>
       </c>
       <c r="K44" s="0">
         <v>0</v>
@@ -9022,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" s="0">
         <v>0</v>
@@ -9094,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="AK44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44" s="0">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0</v>
+        <v>0.54629583815675464</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.81328796245938861</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="BA44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB44" s="0">
         <v>0</v>
@@ -9166,13 +9166,13 @@
         <v>0</v>
       </c>
       <c r="BI44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ44" s="0">
         <v>0</v>
       </c>
       <c r="BK44" s="0">
-        <v>0</v>
+        <v>0.96302914122238148</v>
       </c>
       <c r="BL44" s="0">
         <v>0</v>
@@ -9213,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" s="0">
         <v>0</v>
@@ -9222,10 +9222,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="0">
-        <v>0</v>
+        <v>0.715885907882988</v>
       </c>
       <c r="L45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" s="0">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="0">
-        <v>0</v>
+        <v>0.86350575739266056</v>
       </c>
       <c r="S45" s="0">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="0">
-        <v>0</v>
+        <v>0.53842556251632567</v>
       </c>
       <c r="W45" s="0">
         <v>0</v>
@@ -9300,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="0">
-        <v>0</v>
+        <v>0.8988165470377687</v>
       </c>
       <c r="AL45" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="AX45" s="0">
-        <v>0</v>
+        <v>0.9500888521137123</v>
       </c>
       <c r="AY45" s="0">
         <v>0</v>
@@ -9357,7 +9357,7 @@
         <v>0</v>
       </c>
       <c r="BD45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE45" s="0">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" s="0">
         <v>0</v>
@@ -9428,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="0">
-        <v>0</v>
+        <v>0.92066062998391707</v>
       </c>
       <c r="L46" s="0">
         <v>0</v>
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="0">
-        <v>0</v>
+        <v>0.67085166019093578</v>
       </c>
       <c r="W46" s="0">
         <v>0</v>
@@ -9512,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="AM46" s="0">
-        <v>0</v>
+        <v>0.99658313944664811</v>
       </c>
       <c r="AN46" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.88120026805077589</v>
       </c>
       <c r="AS46" s="0">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="AW46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX46" s="0">
         <v>0</v>
@@ -9572,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="BG46" s="0">
-        <v>0</v>
+        <v>0.78981946068696929</v>
       </c>
       <c r="BH46" s="0">
         <v>0</v>
@@ -9596,7 +9596,7 @@
         <v>0</v>
       </c>
       <c r="BO46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP46" s="0">
         <v>0</v>
@@ -9622,13 +9622,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="0">
-        <v>0</v>
+        <v>0.74239593972364126</v>
       </c>
       <c r="H47" s="0">
         <v>0</v>
       </c>
       <c r="I47" s="0">
-        <v>0</v>
+        <v>0.59496019898471864</v>
       </c>
       <c r="J47" s="0">
         <v>0</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W47" s="0">
         <v>0</v>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="0">
         <v>0</v>
@@ -9685,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="AB47" s="0">
-        <v>0</v>
+        <v>0.88766466197910199</v>
       </c>
       <c r="AC47" s="0">
         <v>0</v>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="AO47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP47" s="0">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="0">
         <v>0</v>
@@ -9745,10 +9745,10 @@
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0</v>
+        <v>0.73782002885575526</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0.98784445175581137</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9831,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="0">
-        <v>0</v>
+        <v>0.85749525724020426</v>
       </c>
       <c r="I48" s="0">
         <v>0</v>
@@ -9864,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" s="0">
         <v>0</v>
@@ -9903,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="AF48" s="0">
-        <v>0</v>
+        <v>0.55247768484215032</v>
       </c>
       <c r="AG48" s="0">
         <v>0</v>
@@ -9918,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48" s="0">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>0</v>
+        <v>0.64341191187030233</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="AY48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ48" s="0">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>0</v>
       </c>
       <c r="BE48" s="0">
-        <v>0</v>
+        <v>0.7994716340283039</v>
       </c>
       <c r="BF48" s="0">
         <v>0</v>
@@ -10022,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -10070,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="0">
-        <v>0</v>
+        <v>0.70787448288410371</v>
       </c>
       <c r="T49" s="0">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>0</v>
       </c>
       <c r="AI49" s="0">
-        <v>0</v>
+        <v>0.75277012824104594</v>
       </c>
       <c r="AJ49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK49" s="0">
         <v>0</v>
@@ -10151,10 +10151,10 @@
         <v>0</v>
       </c>
       <c r="AT49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0.76215737546761253</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
@@ -10172,7 +10172,7 @@
         <v>0</v>
       </c>
       <c r="BA49" s="0">
-        <v>0</v>
+        <v>0.91441754032818978</v>
       </c>
       <c r="BB49" s="0">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="BI49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ49" s="0">
         <v>0</v>
@@ -10240,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="0">
-        <v>0</v>
+        <v>0.51255062693645903</v>
       </c>
       <c r="H50" s="0">
         <v>0</v>
@@ -10258,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="0">
-        <v>0</v>
+        <v>0.8568228701957864</v>
       </c>
       <c r="N50" s="0">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="0">
         <v>0</v>
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="AA50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB50" s="0">
         <v>0</v>
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="AL50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50" s="0">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="AS50" s="0">
-        <v>0</v>
+        <v>0.9759203010927584</v>
       </c>
       <c r="AT50" s="0">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10384,16 +10384,16 @@
         <v>0</v>
       </c>
       <c r="BC50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE50" s="0">
         <v>0</v>
       </c>
       <c r="BF50" s="0">
-        <v>0</v>
+        <v>0.81599367877740359</v>
       </c>
       <c r="BG50" s="0">
         <v>0</v>
@@ -10405,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="BJ50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK50" s="0">
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" s="0">
         <v>0</v>
@@ -10479,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="R51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51" s="0">
         <v>0</v>
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="X51" s="0">
-        <v>0</v>
+        <v>0.816899939532999</v>
       </c>
       <c r="Y51" s="0">
         <v>0</v>
@@ -10533,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK51" s="0">
         <v>0</v>
@@ -10545,10 +10545,10 @@
         <v>0</v>
       </c>
       <c r="AN51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO51" s="0">
-        <v>0</v>
+        <v>0.78935942428099792</v>
       </c>
       <c r="AP51" s="0">
         <v>0</v>
@@ -10569,7 +10569,7 @@
         <v>0</v>
       </c>
       <c r="AV51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW51" s="0">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>0</v>
+        <v>0.81015323371273329</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10593,7 +10593,7 @@
         <v>0</v>
       </c>
       <c r="BD51" s="0">
-        <v>0</v>
+        <v>0.89449223561730773</v>
       </c>
       <c r="BE51" s="0">
         <v>0</v>
@@ -10637,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" s="0">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="0">
         <v>0</v>
@@ -10709,7 +10709,7 @@
         <v>0</v>
       </c>
       <c r="Z52" s="0">
-        <v>0</v>
+        <v>0.75848781236005036</v>
       </c>
       <c r="AA52" s="0">
         <v>0</v>
@@ -10745,13 +10745,13 @@
         <v>0</v>
       </c>
       <c r="AL52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52" s="0">
         <v>0</v>
       </c>
       <c r="AN52" s="0">
-        <v>0</v>
+        <v>0.91519281148914611</v>
       </c>
       <c r="AO52" s="0">
         <v>0</v>
@@ -10840,7 +10840,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0</v>
+        <v>0.55441580985140604</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -10900,7 +10900,7 @@
         <v>0</v>
       </c>
       <c r="U53" s="0">
-        <v>0</v>
+        <v>0.53997453005363283</v>
       </c>
       <c r="V53" s="0">
         <v>0</v>
@@ -10936,7 +10936,7 @@
         <v>0</v>
       </c>
       <c r="AG53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH53" s="0">
         <v>0</v>
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="AL53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="0">
         <v>0</v>
@@ -10969,7 +10969,7 @@
         <v>0</v>
       </c>
       <c r="AR53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS53" s="0">
         <v>0</v>
@@ -10984,13 +10984,13 @@
         <v>0</v>
       </c>
       <c r="AW53" s="0">
-        <v>0</v>
+        <v>0.68130901337135685</v>
       </c>
       <c r="AX53" s="0">
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0</v>
+        <v>0.55456809987318967</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -11067,7 +11067,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="0">
-        <v>1</v>
+        <v>0.89299342847351526</v>
       </c>
       <c r="I54" s="0">
         <v>0</v>
@@ -11076,7 +11076,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="0">
         <v>0</v>
@@ -11088,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="0">
-        <v>0</v>
+        <v>0.84620273564782489</v>
       </c>
       <c r="P54" s="0">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="AL54" s="0">
-        <v>0</v>
+        <v>0.68784577573931716</v>
       </c>
       <c r="AM54" s="0">
         <v>0</v>
@@ -11238,10 +11238,10 @@
         <v>0</v>
       </c>
       <c r="BM54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN54" s="0">
-        <v>0</v>
+        <v>0.82661418415005028</v>
       </c>
       <c r="BO54" s="0">
         <v>0</v>
@@ -11252,7 +11252,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0</v>
+        <v>0.74675569609372539</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="0">
-        <v>1</v>
+        <v>0.91988991074523208</v>
       </c>
       <c r="M55" s="0">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="T55" s="0">
-        <v>0</v>
+        <v>0.9651967867517155</v>
       </c>
       <c r="U55" s="0">
         <v>0</v>
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD55" s="0">
         <v>0</v>
@@ -11345,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="AF55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG55" s="0">
         <v>0</v>
@@ -11357,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="0">
-        <v>0</v>
+        <v>0.75512657755861778</v>
       </c>
       <c r="AK55" s="0">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="AP55" s="0">
-        <v>0</v>
+        <v>0.95177012001883121</v>
       </c>
       <c r="AQ55" s="0">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="AX55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY55" s="0">
         <v>0</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE55" s="0">
         <v>0</v>
@@ -11461,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="0">
-        <v>0</v>
+        <v>0.52134222706929312</v>
       </c>
       <c r="C56" s="0">
         <v>0</v>
@@ -11470,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="0">
-        <v>0</v>
+        <v>0.67219452734216434</v>
       </c>
       <c r="F56" s="0">
         <v>0</v>
@@ -11527,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="0">
         <v>0</v>
@@ -11536,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="AA56" s="0">
-        <v>0</v>
+        <v>0.6900714681948712</v>
       </c>
       <c r="AB56" s="0">
         <v>0</v>
@@ -11584,13 +11584,13 @@
         <v>0</v>
       </c>
       <c r="AQ56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR56" s="0">
         <v>0</v>
       </c>
       <c r="AS56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT56" s="0">
         <v>0</v>
@@ -11605,10 +11605,10 @@
         <v>0</v>
       </c>
       <c r="AX56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY56" s="0">
-        <v>0</v>
+        <v>0.86004927494774064</v>
       </c>
       <c r="AZ56" s="0">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11644,7 +11644,7 @@
         <v>0</v>
       </c>
       <c r="BK56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL56" s="0">
         <v>0</v>
@@ -11676,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="0">
         <v>0</v>
@@ -11709,13 +11709,13 @@
         <v>0</v>
       </c>
       <c r="P57" s="0">
-        <v>0</v>
+        <v>0.53463504947775653</v>
       </c>
       <c r="Q57" s="0">
         <v>0</v>
       </c>
       <c r="R57" s="0">
-        <v>0</v>
+        <v>0.78460325604907899</v>
       </c>
       <c r="S57" s="0">
         <v>0</v>
@@ -11739,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="Z57" s="0">
-        <v>0</v>
+        <v>0.5480674547864921</v>
       </c>
       <c r="AA57" s="0">
         <v>0</v>
@@ -11775,10 +11775,10 @@
         <v>0</v>
       </c>
       <c r="AL57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57" s="0">
-        <v>0</v>
+        <v>0.82443322200925873</v>
       </c>
       <c r="AN57" s="0">
         <v>0</v>
@@ -11805,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="AV57" s="0">
-        <v>0</v>
+        <v>0.66974142892325128</v>
       </c>
       <c r="AW57" s="0">
         <v>0</v>
@@ -11873,7 +11873,7 @@
         <v>0</v>
       </c>
       <c r="B58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="0">
         <v>0</v>
@@ -11924,13 +11924,13 @@
         <v>0</v>
       </c>
       <c r="S58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T58" s="0">
         <v>0</v>
       </c>
       <c r="U58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58" s="0">
         <v>0</v>
@@ -11972,13 +11972,13 @@
         <v>0</v>
       </c>
       <c r="AI58" s="0">
-        <v>0</v>
+        <v>0.93015286849337553</v>
       </c>
       <c r="AJ58" s="0">
         <v>0</v>
       </c>
       <c r="AK58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="0">
         <v>0</v>
@@ -11990,7 +11990,7 @@
         <v>0</v>
       </c>
       <c r="AO58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP58" s="0">
         <v>0</v>
@@ -12017,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="AX58" s="0">
-        <v>0</v>
+        <v>0.87260667177068685</v>
       </c>
       <c r="AY58" s="0">
         <v>0</v>
@@ -12044,10 +12044,10 @@
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>0</v>
+        <v>0.60362416997874035</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12109,7 +12109,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" s="0">
         <v>0</v>
@@ -12178,16 +12178,16 @@
         <v>0</v>
       </c>
       <c r="AI59" s="0">
-        <v>0</v>
+        <v>0.75515195316830719</v>
       </c>
       <c r="AJ59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK59" s="0">
         <v>0</v>
       </c>
       <c r="AL59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59" s="0">
         <v>0</v>
@@ -12211,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="AT59" s="0">
-        <v>0</v>
+        <v>0.63799648521986152</v>
       </c>
       <c r="AU59" s="0">
         <v>0</v>
@@ -12247,13 +12247,13 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0</v>
+        <v>0.99191516818575676</v>
       </c>
       <c r="BI59" s="0">
         <v>0</v>
@@ -12285,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" s="0">
         <v>0</v>
@@ -12342,7 +12342,7 @@
         <v>0</v>
       </c>
       <c r="U60" s="0">
-        <v>0</v>
+        <v>0.52163214953638914</v>
       </c>
       <c r="V60" s="0">
         <v>0</v>
@@ -12360,7 +12360,7 @@
         <v>0</v>
       </c>
       <c r="AA60" s="0">
-        <v>0</v>
+        <v>0.69344303574366584</v>
       </c>
       <c r="AB60" s="0">
         <v>0</v>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="AP60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ60" s="0">
         <v>0</v>
@@ -12453,16 +12453,16 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0</v>
+        <v>0.94908426211442387</v>
       </c>
       <c r="BG60" s="0">
-        <v>0</v>
+        <v>0.98655661203362066</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0</v>
+        <v>0.91049734292143636</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="BL60" s="0">
-        <v>0</v>
+        <v>0.58392179045928627</v>
       </c>
       <c r="BM60" s="0">
         <v>0</v>
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="0">
-        <v>0</v>
+        <v>0.83331642805799722</v>
       </c>
       <c r="E61" s="0">
         <v>0</v>
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="0">
         <v>0</v>
@@ -12563,7 +12563,7 @@
         <v>0</v>
       </c>
       <c r="Z61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA61" s="0">
         <v>0</v>
@@ -12617,7 +12617,7 @@
         <v>0</v>
       </c>
       <c r="AR61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS61" s="0">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="AW61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX61" s="0">
         <v>0</v>
@@ -12665,22 +12665,22 @@
         <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>0</v>
+        <v>0.62490544855986374</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0</v>
+        <v>0.87985001569691534</v>
       </c>
       <c r="BK61" s="0">
-        <v>0</v>
+        <v>0.67851921410867821</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
       </c>
       <c r="BM61" s="0">
-        <v>0</v>
+        <v>0.75420011306488621</v>
       </c>
       <c r="BN61" s="0">
         <v>0</v>
@@ -12706,7 +12706,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="0">
         <v>0</v>
@@ -12715,7 +12715,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="0">
-        <v>0</v>
+        <v>0.58070672150703451</v>
       </c>
       <c r="I62" s="0">
         <v>0</v>
@@ -12790,7 +12790,7 @@
         <v>0</v>
       </c>
       <c r="AG62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH62" s="0">
         <v>0</v>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="AX62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY62" s="0">
         <v>0</v>
@@ -12874,7 +12874,7 @@
         <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>0</v>
+        <v>0.94981919316146624</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>0</v>
+        <v>0.97739328028959094</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12895,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="BP62" s="0">
-        <v>0</v>
+        <v>0.55922465515247843</v>
       </c>
     </row>
     <row r="63">
@@ -12948,7 +12948,7 @@
         <v>0</v>
       </c>
       <c r="Q63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63" s="0">
         <v>0</v>
@@ -12972,7 +12972,7 @@
         <v>0</v>
       </c>
       <c r="Y63" s="0">
-        <v>0</v>
+        <v>0.97706955743100399</v>
       </c>
       <c r="Z63" s="0">
         <v>0</v>
@@ -12984,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD63" s="0">
         <v>0</v>
@@ -13026,10 +13026,10 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="0">
-        <v>0</v>
+        <v>0.73191142509681129</v>
       </c>
       <c r="AR63" s="0">
-        <v>0</v>
+        <v>0.96994712607445832</v>
       </c>
       <c r="AS63" s="0">
         <v>0</v>
@@ -13065,7 +13065,7 @@
         <v>0</v>
       </c>
       <c r="BD63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE63" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0</v>
+        <v>0.57191138058270963</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13089,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13106,7 +13106,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B64" s="0">
         <v>0</v>
@@ -13115,7 +13115,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="0">
-        <v>0</v>
+        <v>0.69530975758095526</v>
       </c>
       <c r="E64" s="0">
         <v>0</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="0">
-        <v>0</v>
+        <v>0.90679331431840393</v>
       </c>
       <c r="H64" s="0">
         <v>0</v>
@@ -13166,7 +13166,7 @@
         <v>0</v>
       </c>
       <c r="U64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V64" s="0">
         <v>0</v>
@@ -13196,7 +13196,7 @@
         <v>0</v>
       </c>
       <c r="AE64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF64" s="0">
         <v>0</v>
@@ -13214,7 +13214,7 @@
         <v>0</v>
       </c>
       <c r="AK64" s="0">
-        <v>0</v>
+        <v>0.61276166840293977</v>
       </c>
       <c r="AL64" s="0">
         <v>0</v>
@@ -13283,22 +13283,22 @@
         <v>0</v>
       </c>
       <c r="BH64" s="0">
-        <v>0</v>
+        <v>0.87345822024126019</v>
       </c>
       <c r="BI64" s="0">
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0</v>
+        <v>0.94712435581108778</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0</v>
+        <v>0.81495266444774783</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="0">
-        <v>0</v>
+        <v>0.99286705748433945</v>
       </c>
       <c r="L65" s="0">
         <v>0</v>
@@ -13411,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="AH65" s="0">
-        <v>0</v>
+        <v>0.72087780065020768</v>
       </c>
       <c r="AI65" s="0">
         <v>0</v>
@@ -13432,7 +13432,7 @@
         <v>0</v>
       </c>
       <c r="AO65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP65" s="0">
         <v>0</v>
@@ -13471,7 +13471,7 @@
         <v>0</v>
       </c>
       <c r="BB65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC65" s="0">
         <v>0</v>
@@ -13492,7 +13492,7 @@
         <v>0</v>
       </c>
       <c r="BI65" s="0">
-        <v>0</v>
+        <v>0.64033186692569344</v>
       </c>
       <c r="BJ65" s="0">
         <v>0</v>
@@ -13501,7 +13501,7 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>0</v>
+        <v>0.92842131853443166</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="0">
-        <v>0</v>
+        <v>0.87617365572012229</v>
       </c>
       <c r="P66" s="0">
         <v>0</v>
@@ -13611,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="AF66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG66" s="0">
         <v>0</v>
@@ -13620,7 +13620,7 @@
         <v>0</v>
       </c>
       <c r="AI66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ66" s="0">
         <v>0</v>
@@ -13638,13 +13638,13 @@
         <v>0</v>
       </c>
       <c r="AO66" s="0">
-        <v>0</v>
+        <v>0.6630487989051651</v>
       </c>
       <c r="AP66" s="0">
         <v>0</v>
       </c>
       <c r="AQ66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR66" s="0">
         <v>0</v>
@@ -13677,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="BB66" s="0">
-        <v>0</v>
+        <v>0.52496140580465078</v>
       </c>
       <c r="BC66" s="0">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13748,7 +13748,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="0">
-        <v>0</v>
+        <v>0.91774567074488811</v>
       </c>
       <c r="J67" s="0">
         <v>0</v>
@@ -13760,10 +13760,10 @@
         <v>0</v>
       </c>
       <c r="M67" s="0">
-        <v>0</v>
+        <v>0.71177588106622691</v>
       </c>
       <c r="N67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" s="0">
         <v>0</v>
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="Z67" s="0">
-        <v>0</v>
+        <v>0.82161195897777972</v>
       </c>
       <c r="AA67" s="0">
         <v>0</v>
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="AL67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67" s="0">
         <v>0</v>
@@ -13859,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="AT67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU67" s="0">
         <v>0</v>
@@ -13919,18 +13919,18 @@
         <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" s="0">
         <v>0</v>
@@ -13966,7 +13966,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="0">
-        <v>0</v>
+        <v>0.62098491905961006</v>
       </c>
       <c r="N68" s="0">
         <v>0</v>
@@ -13975,7 +13975,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="0">
-        <v>0</v>
+        <v>0.83255611105081906</v>
       </c>
       <c r="Q68" s="0">
         <v>0</v>
@@ -14008,7 +14008,7 @@
         <v>0</v>
       </c>
       <c r="AA68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB68" s="0">
         <v>0</v>
@@ -14053,7 +14053,7 @@
         <v>0</v>
       </c>
       <c r="AP68" s="0">
-        <v>0</v>
+        <v>0.74627076632954947</v>
       </c>
       <c r="AQ68" s="0">
         <v>0</v>
@@ -14113,7 +14113,7 @@
         <v>0</v>
       </c>
       <c r="BJ68" s="0">
-        <v>0</v>
+        <v>0.92767187149806918</v>
       </c>
       <c r="BK68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject21.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject21.xlsx
@@ -203,7 +203,7 @@
         <v>0</v>
       </c>
       <c r="Z1" s="0">
-        <v>0.63898374028373084</v>
+        <v>0.98399148769620681</v>
       </c>
       <c r="AA1" s="0">
         <v>0</v>
@@ -290,7 +290,7 @@
         <v>0</v>
       </c>
       <c r="BC1" s="0">
-        <v>0.72355585294693037</v>
+        <v>0.74675569609372539</v>
       </c>
       <c r="BD1" s="0">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="0">
-        <v>0.56489332435626016</v>
+        <v>0.90835820592323646</v>
       </c>
       <c r="P3" s="0">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="0">
-        <v>0.53352723158155269</v>
+        <v>0.89087508360014134</v>
       </c>
       <c r="X3" s="0">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="BI4" s="0">
-        <v>0.62647807752744256</v>
+        <v>0.83331642805799722</v>
       </c>
       <c r="BJ4" s="0">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="0">
-        <v>0.51469173966244774</v>
+        <v>0.86518857106124059</v>
       </c>
       <c r="W5" s="0">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="0">
-        <v>0.64273538480229186</v>
+        <v>0.96245361077412106</v>
       </c>
       <c r="AD5" s="0">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="BD5" s="0">
-        <v>0.51825152810013519</v>
+        <v>0.67219452734216434</v>
       </c>
       <c r="BE5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.72627035773172588</v>
+        <v>0.73108148630698899</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1278,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="AO6" s="0">
-        <v>0.85799519098535293</v>
+        <v>0.91262221733806759</v>
       </c>
       <c r="AP6" s="0">
-        <v>0.81804636231145356</v>
+        <v>0.97648722024043644</v>
       </c>
       <c r="AQ6" s="0">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="AU7" s="0">
-        <v>0.61522426317530199</v>
+        <v>0.74239593972364126</v>
       </c>
       <c r="AV7" s="0">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="BL7" s="0">
-        <v>0.52237259281802051</v>
+        <v>0.90679331431840393</v>
       </c>
       <c r="BM7" s="0">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="0">
-        <v>0.75613251035784712</v>
+        <v>0.8105151472441714</v>
       </c>
       <c r="O8" s="0">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="AV8" s="0">
-        <v>0.560612149768003</v>
+        <v>0.85749525724020426</v>
       </c>
       <c r="AW8" s="0">
         <v>0</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="BB8" s="0">
-        <v>0.7468477971265991</v>
+        <v>0.89299342847351526</v>
       </c>
       <c r="BC8" s="0">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="BO9" s="0">
-        <v>0.64561346996485369</v>
+        <v>0.91774567074488811</v>
       </c>
       <c r="BP9" s="0">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="0">
-        <v>0.55834596814538884</v>
+        <v>0.68193760169130568</v>
       </c>
       <c r="C10" s="0">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="0">
-        <v>0.8354848851982587</v>
+        <v>0.88984175106980712</v>
       </c>
       <c r="W10" s="0">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="AR10" s="0">
-        <v>0.72552780852595233</v>
+        <v>0.81130832467837011</v>
       </c>
       <c r="AS10" s="0">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="BM11" s="0">
-        <v>0.86847032963968118</v>
+        <v>0.99286705748433945</v>
       </c>
       <c r="BN11" s="0">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="BC12" s="0">
-        <v>0.62901552557813512</v>
+        <v>0.91988991074523208</v>
       </c>
       <c r="BD12" s="0">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.51672981312564548</v>
+        <v>0.70716798170895934</v>
       </c>
       <c r="O13" s="0">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="AH13" s="0">
-        <v>0.72741623226472751</v>
+        <v>0.77908416940005121</v>
       </c>
       <c r="AI13" s="0">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0.87660885579158043</v>
       </c>
       <c r="BP13" s="0">
-        <v>0.55417841881821439</v>
+        <v>0.62098491905961006</v>
       </c>
     </row>
     <row r="14">
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="0">
-        <v>0.76639503534867748</v>
+        <v>0.80886375987649783</v>
       </c>
       <c r="Y14" s="0">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="0">
-        <v>0.59979194103822686</v>
+        <v>0.67394477927074936</v>
       </c>
       <c r="AQ14" s="0">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="BB15" s="0">
-        <v>0.70701707952366311</v>
+        <v>0.84620273564782489</v>
       </c>
       <c r="BC15" s="0">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="BN15" s="0">
-        <v>0.87375822578095796</v>
+        <v>0.87617365572012229</v>
       </c>
       <c r="BO15" s="0">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>0.68482432406643923</v>
+        <v>0.76956887644675798</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="0">
-        <v>0.52465915857915246</v>
+        <v>0.55739726621804642</v>
       </c>
       <c r="U16" s="0">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="BP16" s="0">
-        <v>0.59657964123457141</v>
+        <v>0.83255611105081906</v>
       </c>
     </row>
     <row r="17">
@@ -3547,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="AP17" s="0">
-        <v>0.54157572601100135</v>
+        <v>0.65870628264236641</v>
       </c>
       <c r="AQ17" s="0">
-        <v>0.51572898279577228</v>
+        <v>0.59069387858616085</v>
       </c>
       <c r="AR17" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>0.51563417907958176</v>
+        <v>0.72675073387988287</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="0">
-        <v>0.60732899351761827</v>
+        <v>0.86350575739266056</v>
       </c>
       <c r="AT18" s="0">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="0">
-        <v>0.5923171443814752</v>
+        <v>0.72578295128163484</v>
       </c>
       <c r="E19" s="0">
         <v>0</v>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="AN19" s="0">
-        <v>0.6253334612366519</v>
+        <v>0.96926962238045999</v>
       </c>
       <c r="AO19" s="0">
         <v>0</v>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="0">
-        <v>0.61826951040273359</v>
+        <v>0.64186284731711751</v>
       </c>
       <c r="G20" s="0">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="BC20" s="0">
-        <v>0.79652819779030892</v>
+        <v>0.9651967867517155</v>
       </c>
       <c r="BD20" s="0">
         <v>0</v>
@@ -4248,13 +4248,13 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.51098663867543936</v>
+        <v>0.74304159966320082</v>
       </c>
       <c r="B21" s="0">
         <v>0</v>
       </c>
       <c r="C21" s="0">
-        <v>0.50186508550231967</v>
+        <v>0.67023133125274881</v>
       </c>
       <c r="D21" s="0">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.60698997947710787</v>
+        <v>0.88841280903183639</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4556,10 +4556,10 @@
         <v>0</v>
       </c>
       <c r="AI22" s="0">
-        <v>0.67584431072348128</v>
+        <v>0.95044538945517232</v>
       </c>
       <c r="AJ22" s="0">
-        <v>0.69372710806926996</v>
+        <v>0.73036621409775604</v>
       </c>
       <c r="AK22" s="0">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="0">
-        <v>0.69770585872447866</v>
+        <v>0.94555717881762846</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.57437379865678961</v>
+        <v>0.87319460056856602</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="0">
-        <v>0.82693645893149115</v>
+        <v>0.99760084168153296</v>
       </c>
       <c r="J24" s="0">
         <v>0</v>
@@ -4968,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="AI24" s="0">
-        <v>0.76822456007222062</v>
+        <v>0.83360461650939466</v>
       </c>
       <c r="AJ24" s="0">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="AY24" s="0">
-        <v>0.67991727490930765</v>
+        <v>0.816899939532999</v>
       </c>
       <c r="AZ24" s="0">
         <v>0</v>
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="0">
-        <v>0.54438996664110983</v>
+        <v>0.73876549167125605</v>
       </c>
       <c r="G25" s="0">
         <v>0</v>
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="AZ26" s="0">
-        <v>0.69963699415959291</v>
+        <v>0.75848781236005036</v>
       </c>
       <c r="BA26" s="0">
         <v>0</v>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="BO26" s="0">
-        <v>0.55644436933123076</v>
+        <v>0.82161195897777972</v>
       </c>
       <c r="BP26" s="0">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="0">
-        <v>0.81687071096392927</v>
+        <v>0.86097139000049228</v>
       </c>
       <c r="P27" s="0">
         <v>0</v>
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="0">
-        <v>0.73561331287301934</v>
+        <v>0.77738030028057581</v>
       </c>
       <c r="AQ27" s="0">
         <v>0</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="BH27" s="0">
-        <v>0.57915673282157032</v>
+        <v>0.69344303574366584</v>
       </c>
       <c r="BI27" s="0">
         <v>0</v>
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="AU28" s="0">
-        <v>0.72589039263587396</v>
+        <v>0.88766466197910199</v>
       </c>
       <c r="AV28" s="0">
         <v>0</v>
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="AI29" s="0">
-        <v>0.65215149237493653</v>
+        <v>0.85493868572681941</v>
       </c>
       <c r="AJ29" s="0">
         <v>0</v>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="0">
-        <v>0.72279229543383838</v>
+        <v>0.73643988147019579</v>
       </c>
       <c r="Q31" s="0">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="AL31" s="0">
-        <v>0.66371889634017667</v>
+        <v>0.91717143593434713</v>
       </c>
       <c r="AM31" s="0">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="AQ31" s="0">
-        <v>0.89212270600330879</v>
+        <v>0.97407921396202179</v>
       </c>
       <c r="AR31" s="0">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="0">
-        <v>0.85359406601505983</v>
+        <v>0.91484905115717274</v>
       </c>
       <c r="K32" s="0">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0.72437860552090183</v>
+        <v>0.8170245060854342</v>
       </c>
       <c r="AE32" s="0">
         <v>0</v>
@@ -6986,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="0">
-        <v>0.52200379164262112</v>
+        <v>0.64721459943499005</v>
       </c>
       <c r="V34" s="0">
         <v>0</v>
@@ -7013,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="AD34" s="0">
-        <v>0.53472097260465412</v>
+        <v>0.98931644534776664</v>
       </c>
       <c r="AE34" s="0">
         <v>0</v>
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>0.67294474086259615</v>
+        <v>0.77962962846194594</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
@@ -7276,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="AW35" s="0">
-        <v>0.55352698923596089</v>
+        <v>0.75277012824104594</v>
       </c>
       <c r="AX35" s="0">
         <v>0</v>
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="BF35" s="0">
-        <v>0.74522772614769073</v>
+        <v>0.93015286849337553</v>
       </c>
       <c r="BG35" s="0">
         <v>0.88983344235033457</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0.75596159404818453</v>
+        <v>0.87515165278945273</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="BC36" s="0">
-        <v>0.73084481368477705</v>
+        <v>0.75512657755861778</v>
       </c>
       <c r="BD36" s="0">
         <v>0</v>
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="0">
-        <v>0.53073643169173668</v>
+        <v>0.69867806271202304</v>
       </c>
       <c r="AC37" s="0">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.76214183109237266</v>
+        <v>0.9872906883303284</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="0">
-        <v>0.7234592259589685</v>
+        <v>0.8988165470377687</v>
       </c>
       <c r="AT37" s="0">
         <v>0</v>
@@ -7989,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="0">
-        <v>0.57927985887768418</v>
+        <v>0.60020540967537483</v>
       </c>
       <c r="M39" s="0">
         <v>0</v>
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="AT39" s="0">
-        <v>0.61645102439601596</v>
+        <v>0.99658313944664811</v>
       </c>
       <c r="AU39" s="0">
         <v>0</v>
@@ -8198,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="0">
-        <v>0.59088103265508074</v>
+        <v>0.81982708618129885</v>
       </c>
       <c r="N40" s="0">
         <v>0</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="0">
-        <v>0.52536827569293321</v>
+        <v>0.94979387898127543</v>
       </c>
       <c r="V40" s="0">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="AZ40" s="0">
-        <v>0.50952309353936476</v>
+        <v>0.91519281148914611</v>
       </c>
       <c r="BA40" s="0">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="0">
-        <v>0.64423282603645982</v>
+        <v>0.72876655166827142</v>
       </c>
       <c r="Z41" s="0">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="AG41" s="0">
-        <v>0.54281541070526562</v>
+        <v>0.75217756630398225</v>
       </c>
       <c r="AH41" s="0">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>0.97648722024043644</v>
       </c>
       <c r="G42" s="0">
-        <v>0.67458570489877157</v>
+        <v>0.68072824971327672</v>
       </c>
       <c r="H42" s="0">
         <v>0</v>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="BC42" s="0">
-        <v>0.5960986478007132</v>
+        <v>0.95177012001883121</v>
       </c>
       <c r="BD42" s="0">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="BP42" s="0">
-        <v>0.66515330371380699</v>
+        <v>0.74627076632954947</v>
       </c>
     </row>
     <row r="43">
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="AD43" s="0">
-        <v>0.57138573959051786</v>
+        <v>0.69295530988754983</v>
       </c>
       <c r="AE43" s="0">
         <v>0.97407921396202179</v>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0.54629583815675464</v>
+        <v>0.87567553914793583</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>0.81328796245938861</v>
+        <v>0.88120026805077589</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="BK44" s="0">
-        <v>0.96302914122238148</v>
+        <v>0.96994712607445832</v>
       </c>
       <c r="BL44" s="0">
         <v>0</v>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="0">
-        <v>0.715885907882988</v>
+        <v>0.80658666641608123</v>
       </c>
       <c r="L45" s="0">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="0">
-        <v>0.53842556251632567</v>
+        <v>0.58033999006957537</v>
       </c>
       <c r="W45" s="0">
         <v>0</v>
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="AX45" s="0">
-        <v>0.9500888521137123</v>
+        <v>0.9759203010927584</v>
       </c>
       <c r="AY45" s="0">
         <v>0</v>
@@ -9428,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="0">
-        <v>0.92066062998391707</v>
+        <v>0.99737460580584725</v>
       </c>
       <c r="L46" s="0">
         <v>0</v>
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="0">
-        <v>0.67085166019093578</v>
+        <v>0.68940972742874984</v>
       </c>
       <c r="W46" s="0">
         <v>0</v>
@@ -9628,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="0">
-        <v>0.59496019898471864</v>
+        <v>0.59803485651367061</v>
       </c>
       <c r="J47" s="0">
         <v>0</v>
@@ -9903,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="AF48" s="0">
-        <v>0.55247768484215032</v>
+        <v>0.74792565776657294</v>
       </c>
       <c r="AG48" s="0">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>0.64341191187030233</v>
+        <v>0.73782002885575526</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -10070,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="0">
-        <v>0.70787448288410371</v>
+        <v>0.74569876745816788</v>
       </c>
       <c r="T49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0.76215737546761253</v>
+        <v>0.98784445175581137</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10240,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="0">
-        <v>0.51255062693645903</v>
+        <v>0.74727371498108441</v>
       </c>
       <c r="H50" s="0">
         <v>0</v>
@@ -10258,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="0">
-        <v>0.8568228701957864</v>
+        <v>0.98677585987791039</v>
       </c>
       <c r="N50" s="0">
         <v>0</v>
@@ -10393,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="BF50" s="0">
-        <v>0.81599367877740359</v>
+        <v>0.87260667177068685</v>
       </c>
       <c r="BG50" s="0">
         <v>0</v>
@@ -10548,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="AO51" s="0">
-        <v>0.78935942428099792</v>
+        <v>0.99518519922514215</v>
       </c>
       <c r="AP51" s="0">
         <v>0</v>
@@ -10840,7 +10840,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.55441580985140604</v>
+        <v>0.96766385133053134</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -10900,7 +10900,7 @@
         <v>0</v>
       </c>
       <c r="U53" s="0">
-        <v>0.53997453005363283</v>
+        <v>0.79435254923501764</v>
       </c>
       <c r="V53" s="0">
         <v>0</v>
@@ -10984,13 +10984,13 @@
         <v>0</v>
       </c>
       <c r="AW53" s="0">
-        <v>0.68130901337135685</v>
+        <v>0.91441754032818978</v>
       </c>
       <c r="AX53" s="0">
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0.55456809987318967</v>
+        <v>0.81015323371273329</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="AL54" s="0">
-        <v>0.68784577573931716</v>
+        <v>0.89700121066433058</v>
       </c>
       <c r="AM54" s="0">
         <v>0</v>
@@ -11461,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="0">
-        <v>0.52134222706929312</v>
+        <v>0.83452547541152355</v>
       </c>
       <c r="C56" s="0">
         <v>0</v>
@@ -11536,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="AA56" s="0">
-        <v>0.6900714681948712</v>
+        <v>0.69665028738726975</v>
       </c>
       <c r="AB56" s="0">
         <v>0</v>
@@ -11608,7 +11608,7 @@
         <v>0</v>
       </c>
       <c r="AY56" s="0">
-        <v>0.86004927494774064</v>
+        <v>0.89449223561730773</v>
       </c>
       <c r="AZ56" s="0">
         <v>0</v>
@@ -11709,13 +11709,13 @@
         <v>0</v>
       </c>
       <c r="P57" s="0">
-        <v>0.53463504947775653</v>
+        <v>0.69260182494445677</v>
       </c>
       <c r="Q57" s="0">
         <v>0</v>
       </c>
       <c r="R57" s="0">
-        <v>0.78460325604907899</v>
+        <v>0.94757449158233387</v>
       </c>
       <c r="S57" s="0">
         <v>0</v>
@@ -11739,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="Z57" s="0">
-        <v>0.5480674547864921</v>
+        <v>0.91960313326891363</v>
       </c>
       <c r="AA57" s="0">
         <v>0</v>
@@ -11778,7 +11778,7 @@
         <v>0</v>
       </c>
       <c r="AM57" s="0">
-        <v>0.82443322200925873</v>
+        <v>0.84899312924570336</v>
       </c>
       <c r="AN57" s="0">
         <v>0</v>
@@ -11805,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="AV57" s="0">
-        <v>0.66974142892325128</v>
+        <v>0.7994716340283039</v>
       </c>
       <c r="AW57" s="0">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>0.60362416997874035</v>
+        <v>0.94908426211442387</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12178,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="AI59" s="0">
-        <v>0.75515195316830719</v>
+        <v>0.88983344235033457</v>
       </c>
       <c r="AJ59" s="0">
         <v>0</v>
@@ -12211,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="AT59" s="0">
-        <v>0.63799648521986152</v>
+        <v>0.78981946068696929</v>
       </c>
       <c r="AU59" s="0">
         <v>0</v>
@@ -12342,7 +12342,7 @@
         <v>0</v>
       </c>
       <c r="U60" s="0">
-        <v>0.52163214953638914</v>
+        <v>0.88857298012154673</v>
       </c>
       <c r="V60" s="0">
         <v>0</v>
@@ -12456,7 +12456,7 @@
         <v>0.94908426211442387</v>
       </c>
       <c r="BG60" s="0">
-        <v>0.98655661203362066</v>
+        <v>0.99191516818575676</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="BL60" s="0">
-        <v>0.58392179045928627</v>
+        <v>0.87345822024126019</v>
       </c>
       <c r="BM60" s="0">
         <v>0</v>
@@ -12665,13 +12665,13 @@
         <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>0.62490544855986374</v>
+        <v>0.91049734292143636</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.87985001569691534</v>
+        <v>0.94981919316146624</v>
       </c>
       <c r="BK61" s="0">
         <v>0.67851921410867821</v>
@@ -12715,7 +12715,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="0">
-        <v>0.58070672150703451</v>
+        <v>0.96321672871520292</v>
       </c>
       <c r="I62" s="0">
         <v>0</v>
@@ -12895,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="BP62" s="0">
-        <v>0.55922465515247843</v>
+        <v>0.92767187149806918</v>
       </c>
     </row>
     <row r="63">
@@ -12972,7 +12972,7 @@
         <v>0</v>
       </c>
       <c r="Y63" s="0">
-        <v>0.97706955743100399</v>
+        <v>0.99735872979316131</v>
       </c>
       <c r="Z63" s="0">
         <v>0</v>
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="0">
-        <v>0.73191142509681129</v>
+        <v>0.86286157678700803</v>
       </c>
       <c r="AR63" s="0">
         <v>0.96994712607445832</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0.57191138058270963</v>
+        <v>0.67851921410867821</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13115,7 +13115,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="0">
-        <v>0.69530975758095526</v>
+        <v>0.98105085874765918</v>
       </c>
       <c r="E64" s="0">
         <v>0</v>
@@ -13214,7 +13214,7 @@
         <v>0</v>
       </c>
       <c r="AK64" s="0">
-        <v>0.61276166840293977</v>
+        <v>0.80737470205576622</v>
       </c>
       <c r="AL64" s="0">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0.94712435581108778</v>
+        <v>0.97739328028959094</v>
       </c>
       <c r="BK64" s="0">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.81495266444774783</v>
+        <v>0.92842131853443166</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13411,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="AH65" s="0">
-        <v>0.72087780065020768</v>
+        <v>0.94243405141227599</v>
       </c>
       <c r="AI65" s="0">
         <v>0</v>
@@ -13492,7 +13492,7 @@
         <v>0</v>
       </c>
       <c r="BI65" s="0">
-        <v>0.64033186692569344</v>
+        <v>0.75420011306488621</v>
       </c>
       <c r="BJ65" s="0">
         <v>0</v>
@@ -13638,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="AO66" s="0">
-        <v>0.6630487989051651</v>
+        <v>0.90856192961449822</v>
       </c>
       <c r="AP66" s="0">
         <v>0</v>
@@ -13677,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="BB66" s="0">
-        <v>0.52496140580465078</v>
+        <v>0.82661418415005028</v>
       </c>
       <c r="BC66" s="0">
         <v>0</v>
@@ -13760,7 +13760,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="0">
-        <v>0.71177588106622691</v>
+        <v>0.87660885579158043</v>
       </c>
       <c r="N67" s="0">
         <v>0</v>
